--- a/app/static/train_tools/rule_data_rule.xlsx
+++ b/app/static/train_tools/rule_data_rule.xlsx
@@ -2336,7 +2336,7 @@
     <t>승모판폐쇄부전</t>
   </si>
   <si>
-    <t xml:space="preserve"> 증상] : 한밤중부터 새벽녘에 걸쳐서, 또는 운동이나 흥분한 후에 목이 막힌 듯이 건조한 기침이 나오는 것이 초기증상이다. 질병이 진행되면 기침이 심해지고 간격이 짧아지며 한밤중 내내 계속된다. 쉽게 피곤해지고 산책이나 운동을 싫어하며 주저앉거나 실신한다. 심장이 비대해지고 심한 경우에는 공 모양으로 변형되어 폐에도 영향을 미치기 때문에 호흡곤란이나 폐기종 등을 야기하거나 발작을 일으켜 쓰러지기도 한다.@ 원인] : 노화와 더불어 승모판이 상처를 입어 약해지고 늘어나 판이 제대로 닫히지 않게 되는 것 등이 주요 원인으로 혈액이 역류하여 심장이 비대하다.@ 케어방법] : 나이를 먹으면서 발생하는 질병이기 때문에 완치는 불가능하다. 혈관확장제, 이뇨제, 강심제 등을 사용해 몸의 부담을 덜어준다. 조기발견, 조기치료가 장수의 비결이다. 기침이 나오거나 5살을 넘기면 검사를 받아보자. 원칙적으로 식사는 염분을 제한해야 하며, 심장병용 치료식으로 바꿔주는 것이 좋다.</t>
+    <t>증상] : 한밤중부터 새벽녘에 걸쳐서, 또는 운동이나 흥분한 후에 목이 막힌 듯이 건조한 기침이 나오는 것이 초기증상이다. 질병이 진행되면 기침이 심해지고 간격이 짧아지며 한밤중 내내 계속된다. 쉽게 피곤해지고 산책이나 운동을 싫어하며 주저앉거나 실신한다. 심장이 비대해지고 심한 경우에는 공 모양으로 변형되어 폐에도 영향을 미치기 때문에 호흡곤란이나 폐기종 등을 야기하거나 발작을 일으켜 쓰러지기도 한다.@ 원인] : 노화와 더불어 승모판이 상처를 입어 약해지고 늘어나 판이 제대로 닫히지 않게 되는 것 등이 주요 원인으로 혈액이 역류하여 심장이 비대하다.@ 케어방법] : 나이를 먹으면서 발생하는 질병이기 때문에 완치는 불가능하다. 혈관확장제, 이뇨제, 강심제 등을 사용해 몸의 부담을 덜어준다. 조기발견, 조기치료가 장수의 비결이다. 기침이 나오거나 5살을 넘기면 검사를 받아보자. 원칙적으로 식사는 염분을 제한해야 하며, 심장병용 치료식으로 바꿔주는 것이 좋다.</t>
   </si>
   <si>
     <t>심근증</t>
@@ -2348,13 +2348,13 @@
     <t>심장사상충증</t>
   </si>
   <si>
-    <t xml:space="preserve"> 증상] : 심장사상충은 몸길이가 20~30cm 정도 되는 기생충으로, 심장과 그 주변의 굵은 혈관 속에 기생한다. 가벼운 기침으로 시작해서 질병이 진행되면 기침이 만성화되고 천식처럼 심해진다. 기침을 하면서 자극으로 복수가 차서 빵빵하게 부어오르기도 하며 호흡곤란이나 식욕부진, 운동을 싫어하는 등의 증상을 보이게 된다. 또 급성 심장사상충증으로 갑자기 심하게 호흡곤란이 오고 커피색 소변이 배출되기도 하고 심부전으로 생명을 잃기도 한다.@ 원인] : 모기가 감염된 개의 피를 빨아들일 때 혈액 속의 심장사상충 자충(미크로필라리아)도 함께 들이마신다. 심장사상충은 모기의 체내에서 성장하다가 모기가 다시 다른 개의 피를 흡입할 때 침을 통해 개의 몸으로 들어가고, 최종적으로 심장까지 도달한다. 대부분의 심장사상충이 혈액의 흐름을 방해하거나 심장 판의 움직임을 악화시키기 때문에 심장병의 증상이 나타난다.@ 케어방법] : 모기가 발생하는 지역에서는 현재도 감염될 소지가 있는 질병이다. 심장사상충증은 예방이 가장 중요한데, 벌레가 침입해도 예방약으로 구제할 수 있기 때문이다. 모기가 나오기 1개월 전부터 모기가 사라지는 1개월 후까지 적당량의 예방약을 먹인다. 치료는 성충이 기생해서 기침이나 복수 등의 증상이 나타날 때에는 증상을 완화시키기 위한 대증요법을 하는데, 심장 등에 기생한 심장사상충의 살충치료는 부작용을 동반하는 일이 적지 않다.</t>
+    <t>증상] : 심장사상충은 몸길이가 20~30cm 정도 되는 기생충으로, 심장과 그 주변의 굵은 혈관 속에 기생한다. 가벼운 기침으로 시작해서 질병이 진행되면 기침이 만성화되고 천식처럼 심해진다. 기침을 하면서 자극으로 복수가 차서 빵빵하게 부어오르기도 하며 호흡곤란이나 식욕부진, 운동을 싫어하는 등의 증상을 보이게 된다. 또 급성 심장사상충증으로 갑자기 심하게 호흡곤란이 오고 커피색 소변이 배출되기도 하고 심부전으로 생명을 잃기도 한다.@ 원인] : 모기가 감염된 개의 피를 빨아들일 때 혈액 속의 심장사상충 자충(미크로필라리아)도 함께 들이마신다. 심장사상충은 모기의 체내에서 성장하다가 모기가 다시 다른 개의 피를 흡입할 때 침을 통해 개의 몸으로 들어가고, 최종적으로 심장까지 도달한다. 대부분의 심장사상충이 혈액의 흐름을 방해하거나 심장 판의 움직임을 악화시키기 때문에 심장병의 증상이 나타난다.@ 케어방법] : 모기가 발생하는 지역에서는 현재도 감염될 소지가 있는 질병이다. 심장사상충증은 예방이 가장 중요한데, 벌레가 침입해도 예방약으로 구제할 수 있기 때문이다. 모기가 나오기 1개월 전부터 모기가 사라지는 1개월 후까지 적당량의 예방약을 먹인다. 치료는 성충이 기생해서 기침이나 복수 등의 증상이 나타날 때에는 증상을 완화시키기 위한 대증요법을 하는데, 심장 등에 기생한 심장사상충의 살충치료는 부작용을 동반하는 일이 적지 않다.</t>
   </si>
   <si>
     <t>동맥관개존증</t>
   </si>
   <si>
-    <t xml:space="preserve"> 증상] : 중증이 되면 금방 피곤하고 기침이나 구토, 호흡곤란 등의 증상이 나타난다. 치료를 하지 않으면 2~3년 후 대부분 사망하지만 6개월 내에 수술을 하면 정상견과 거의 다르지 않게 생활할 수 있다. 셔틀랜드 십독, 포메라니안, 미니어처 닥스훈트, 코기 등에게서 흔히 발견된다.@ 원인] : 대동맥과 폐동맥을 연결하는 동맥관은 태아일 때에는 열려 있다가 생후 72시간 이내에 닫히는데 이 동맥관이 열려 있는 상태로 있으면 혈류에 이상이 생긴다.@ 케어방법] : 증상을 완화시키는 치료를 한 후에, 상태가 안정되면 전문의에게 수술을 받을 수 있다.</t>
+    <t>증상] : 중증이 되면 금방 피곤하고 기침이나 구토, 호흡곤란 등의 증상이 나타난다. 치료를 하지 않으면 2~3년 후 대부분 사망하지만 6개월 내에 수술을 하면 정상견과 거의 다르지 않게 생활할 수 있다. 셔틀랜드 십독, 포메라니안, 미니어처 닥스훈트, 코기 등에게서 흔히 발견된다.@ 원인] : 대동맥과 폐동맥을 연결하는 동맥관은 태아일 때에는 열려 있다가 생후 72시간 이내에 닫히는데 이 동맥관이 열려 있는 상태로 있으면 혈류에 이상이 생긴다.@ 케어방법] : 증상을 완화시키는 치료를 한 후에, 상태가 안정되면 전문의에게 수술을 받을 수 있다.</t>
   </si>
   <si>
     <t>폐동맥협착증</t>
@@ -2492,7 +2492,7 @@
     <t>출혈성위장염</t>
   </si>
   <si>
-    <t xml:space="preserve"> 증상] : 악취가 나는 잼 같은 암적색 피가 섞인 변이 나온다. 구토를 하거나 피를 토하며 탈수증상을 일으키거나 호흡이나 심박이 빨라져서 쇼크 증상을 일으킬 수가 있다. 슈나우저나 닥스훈트, 토이 푸들, 말티즈 등의 소형견에게서 발병하는 경향이 크다.@ 원인] : 파보바이러스 감염증과 같은 감염증 외에도 확실한 원인이 알려지지 않은 출혈성 위장염도 있으며 건강하게 보이는 개에게 갑자기 일어난다. 대부분 소형견들에게 발병한다.@ 케어방법] : 탈수가 심하면 수액을 맞히고, 쇼크 증상이 있다면 그에 상응하는 치료를 한다. 구토나 설사가 없는 경우에는 식사와 물을 제한하고 세균의 2차 감염을 막기 위해서 항생물질 등을 투여한다.</t>
+    <t>증상] : 악취가 나는 잼 같은 암적색 피가 섞인 변이 나온다. 구토를 하거나 피를 토하며 탈수증상을 일으키거나 호흡이나 심박이 빨라져서 쇼크 증상을 일으킬 수가 있다. 슈나우저나 닥스훈트, 토이 푸들, 말티즈 등의 소형견에게서 발병하는 경향이 크다.@ 원인] : 파보바이러스 감염증과 같은 감염증 외에도 확실한 원인이 알려지지 않은 출혈성 위장염도 있으며 건강하게 보이는 개에게 갑자기 일어난다. 대부분 소형견들에게 발병한다.@ 케어방법] : 탈수가 심하면 수액을 맞히고, 쇼크 증상이 있다면 그에 상응하는 치료를 한다. 구토나 설사가 없는 경우에는 식사와 물을 제한하고 세균의 2차 감염을 막기 위해서 항생물질 등을 투여한다.</t>
   </si>
   <si>
     <t>대장염</t>
@@ -2630,7 +2630,7 @@
     <t>안면신경마비</t>
   </si>
   <si>
-    <t xml:space="preserve"> 증상] : 양쪽 얼굴 중 한 곳에 일어나는 경우가 많고 눈꺼풀이나 입술, 귀 등의 근육에 힘이 들어가지 않아서 처지기 때문에 눈물이나 침이 흘러내린다. 대부분은 1~2개월 정도 지나면 회복되는데 그 이상 경과해도 낫지 않고 지속되는 경우도 있다. 눈이 감기지 않게 되거나 건조성 각막염 등의 안질환을 일으키기도 한다.@ 원인] : 대부분 원인이 밝혀지지 않았지만 갑상선의 기능 저하나 중이염, 내이염, 안면신경 외상 등이 원인이 되는 경우가 있다.@ 케어방법] : 신경의 염증을 가라앉히거나 혈류를 좋게 하는 약을 투여한다. 치료는 원인에 따라 다르지만, 불명인 경우에는 회복이 어려워지기도 한다. 마비의 악화나 후유증을 막기 위해서는 조기치료가 중요하다.</t>
+    <t>증상] : 양쪽 얼굴 중 한 곳에 일어나는 경우가 많고 눈꺼풀이나 입술, 귀 등의 근육에 힘이 들어가지 않아서 처지기 때문에 눈물이나 침이 흘러내린다. 대부분은 1~2개월 정도 지나면 회복되는데 그 이상 경과해도 낫지 않고 지속되는 경우도 있다. 눈이 감기지 않게 되거나 건조성 각막염 등의 안질환을 일으키기도 한다.@ 원인] : 대부분 원인이 밝혀지지 않았지만 갑상선의 기능 저하나 중이염, 내이염, 안면신경 외상 등이 원인이 되는 경우가 있다.@ 케어방법] : 신경의 염증을 가라앉히거나 혈류를 좋게 하는 약을 투여한다. 치료는 원인에 따라 다르지만, 불명인 경우에는 회복이 어려워지기도 한다. 마비의 악화나 후유증을 막기 위해서는 조기치료가 중요하다.</t>
   </si>
   <si>
     <t>추간판헤르니아</t>
@@ -2678,7 +2678,7 @@
     <t>요붕증</t>
   </si>
   <si>
-    <t xml:space="preserve"> 증상] : 다음다뇨 외에 이렇다 할 증상은 없다. 1일 소변양은 체중 1kg당 60mL 이하가 평균인데 요붕증에 걸리면 100mL 이상의 소변을 보고, 많으면 300mL까지도 배출한다. 밤중에도 몇 번씩 배뇨를 하기 때문에 주인이 수면부족에 빠지기도 한다. 수분을 극단적으로 제한하면 단시간에 탈수증상을 일으킨다.@ 원인] : 뇌하수체에서 분비되는 항이뇨호르몬에 이상이 있거나 혹은 신장의 기능에 이상이 있기 때문에 소변 유출을 컨트롤할 수 없어 발생한다.@ 케어방법] : 약물로 치료할 수 있다. 치료를 계속하면 탈수증상을 일으키지 않도록 음수량을 조절해야 한다.</t>
+    <t>증상] : 다음다뇨 외에 이렇다 할 증상은 없다. 1일 소변양은 체중 1kg당 60mL 이하가 평균인데 요붕증에 걸리면 100mL 이상의 소변을 보고, 많으면 300mL까지도 배출한다. 밤중에도 몇 번씩 배뇨를 하기 때문에 주인이 수면부족에 빠지기도 한다. 수분을 극단적으로 제한하면 단시간에 탈수증상을 일으킨다.@ 원인] : 뇌하수체에서 분비되는 항이뇨호르몬에 이상이 있거나 혹은 신장의 기능에 이상이 있기 때문에 소변 유출을 컨트롤할 수 없어 발생한다.@ 케어방법] : 약물로 치료할 수 있다. 치료를 계속하면 탈수증상을 일으키지 않도록 음수량을 조절해야 한다.</t>
   </si>
   <si>
     <t>상피소체기능항진증저하증|상피소체</t>
@@ -2690,7 +2690,7 @@
     <t>골절</t>
   </si>
   <si>
-    <t xml:space="preserve"> 증상] : 골절된 개소에는 심한 통증이 따르고, 부어오르고 열이 동반되며 운동기능에 지장을 초래한다. 발생한 부위나 정도에 따라서 증상은 다양하다. 부러진 뼈가 피부를 뚫고 밖으로 튀어나오는 경우를 개방골절이라고 하는데 외부에 접촉되기 때문에 세균에 감염되기 쉽다. 피부가 다치지 않은 것은 폐쇄골절이다. 골절 부위의 모양에 따라 단순골절, 복잡골절 등으로 분류된다. 부러진 뼈가 큰 혈관을 손상시키면 큰 출혈을 일으키고, 등뼈가 손상되면 마비 등의 신경증상을 일으킨다.@ 원인] : 예기치 못한 외적인 힘이 가해져서 일어나는 골절을 외상성 골절, 질병 등으로 뼈가 물러지거나 영양밸런스가 좋지 않아 뼈의 형성이 불완전해서 일어나는 골절은 병적골절이라고 한다.@ 케어방법] : 응급처치로 피부가 찢어져 뼈가 보이는 경우에는 소독한 후에 2차 감염을 예방하기 위해서 재빨리 거즈 등으로 청결하게 한다. 판자나 박스 등을 간단한 지지대로 삼아 환부에 고정하고 가능한 움직이지 않게 해서 병원으로 데려간다. 골절 치료법은 다양한데, 기본은 뼈를 정상적인 위치로 되돌려 재생할 때까지 이탈을 막는 것이다.</t>
+    <t>증상] : 골절된 개소에는 심한 통증이 따르고, 부어오르고 열이 동반되며 운동기능에 지장을 초래한다. 발생한 부위나 정도에 따라서 증상은 다양하다. 부러진 뼈가 피부를 뚫고 밖으로 튀어나오는 경우를 개방골절이라고 하는데 외부에 접촉되기 때문에 세균에 감염되기 쉽다. 피부가 다치지 않은 것은 폐쇄골절이다. 골절 부위의 모양에 따라 단순골절, 복잡골절 등으로 분류된다. 부러진 뼈가 큰 혈관을 손상시키면 큰 출혈을 일으키고, 등뼈가 손상되면 마비 등의 신경증상을 일으킨다.@ 원인] : 예기치 못한 외적인 힘이 가해져서 일어나는 골절을 외상성 골절, 질병 등으로 뼈가 물러지거나 영양밸런스가 좋지 않아 뼈의 형성이 불완전해서 일어나는 골절은 병적골절이라고 한다.@ 케어방법] : 응급처치로 피부가 찢어져 뼈가 보이는 경우에는 소독한 후에 2차 감염을 예방하기 위해서 재빨리 거즈 등으로 청결하게 한다. 판자나 박스 등을 간단한 지지대로 삼아 환부에 고정하고 가능한 움직이지 않게 해서 병원으로 데려간다. 골절 치료법은 다양한데, 기본은 뼈를 정상적인 위치로 되돌려 재생할 때까지 이탈을 막는 것이다.</t>
   </si>
   <si>
     <t>슬개골탈구</t>
@@ -2708,7 +2708,7 @@
     <t>구루병골연화증|구루병</t>
   </si>
   <si>
-    <t xml:space="preserve"> 증상] : 구루병은 1~3개월 정도의 새끼가 걸리고 골연화증은 성견이 걸리는데, 관절이 붓고 변형되며 쉽게 골절되는 등 증상은 같다. 통증 때문에 운동을 싫어하고 뼈가 휘어서 X다리나 O다리가 된다. 늑골과 연골의 연결 부위에 붓기가 염주처럼 이어져 있어 구루병 염주 상태가 되기도 한다.@ 원인] : 칼슘, 인, 비타민 D가 부족하거나 균형이 맞지 않은 것이 원인이 되어 발병한다. 일광욕 부족이나 기생충 때문이라고도 하는데, 대부분은 영양균형이 좋지 않은 데 원인이 있다. 구루병은 뼈의 성장에 장애가 발생하는 것으로, 뼈가 휘게 된다. 골연화증은 성견의 뼈의 칼슘이 소실되어 탈회현상이 일어나는 것이다.@ 케어방법] : 운동을 제한하고 식단을 개선한다. 적량의 비타민 D제, 칼슘제를 투여하는 것이 관건인데, 과다급여가 원인이 되기도 하므로 주의해야 한다. 또 영양흡수에 방해가 되는 원인이 있다면 그 부분도 치료가 필요하다.</t>
+    <t>증상] : 구루병은 1~3개월 정도의 새끼가 걸리고 골연화증은 성견이 걸리는데, 관절이 붓고 변형되며 쉽게 골절되는 등 증상은 같다. 통증 때문에 운동을 싫어하고 뼈가 휘어서 X다리나 O다리가 된다. 늑골과 연골의 연결 부위에 붓기가 염주처럼 이어져 있어 구루병 염주 상태가 되기도 한다.@ 원인] : 칼슘, 인, 비타민 D가 부족하거나 균형이 맞지 않은 것이 원인이 되어 발병한다. 일광욕 부족이나 기생충 때문이라고도 하는데, 대부분은 영양균형이 좋지 않은 데 원인이 있다. 구루병은 뼈의 성장에 장애가 발생하는 것으로, 뼈가 휘게 된다. 골연화증은 성견의 뼈의 칼슘이 소실되어 탈회현상이 일어나는 것이다.@ 케어방법] : 운동을 제한하고 식단을 개선한다. 적량의 비타민 D제, 칼슘제를 투여하는 것이 관건인데, 과다급여가 원인이 되기도 하므로 주의해야 한다. 또 영양흡수에 방해가 되는 원인이 있다면 그 부분도 치료가 필요하다.</t>
   </si>
   <si>
     <t>레그페르테스병|페르테스</t>
@@ -2744,37 +2744,37 @@
     <t>광견병</t>
   </si>
   <si>
-    <t xml:space="preserve"> 증상] : 잠복해 있다가 발병하기까지는 약 1주일에서 1년 정도로 기간이 다양하다. 이 질병에 감염되면 중추신경에 이상이 생겨 이상하게 짖거나 침을 흘리면서 배회하는 등의 수상쩍은 행동을 하며 흉포해지고, 점점 근육이 마비되면서 움직이지 못하게 되다가 사망에 이르게 된다. 또 감염되자마자 마비상태가 되어 며칠 만에 사망하는 마비형도 있다.@ 원인] : 광견병에 걸린 개에게 물리면 타액 속에 섞여 있는 광견병 바이러스가 체내에 침입한다. 바이러스는 신경에서부터 척추나 뇌에 도달해서 신경증상을 일으킨다. 광견병 바이러스는 개나 인간뿐만 아니라 모든 포유동물에게 감염된다.@ 케어방법] : 현재 광견병의 치료법은 없다. 광견병 예방법에 따라 연 1회의 백신접종이 의무화되어 있지만 의무 때문이 아니라 나와 가족, 이웃 그리고 반려견의 건강을 위해서라도 반드시 백신을 접종시키자.</t>
+    <t>증상] : 잠복해 있다가 발병하기까지는 약 1주일에서 1년 정도로 기간이 다양하다. 이 질병에 감염되면 중추신경에 이상이 생겨 이상하게 짖거나 침을 흘리면서 배회하는 등의 수상쩍은 행동을 하며 흉포해지고, 점점 근육이 마비되면서 움직이지 못하게 되다가 사망에 이르게 된다. 또 감염되자마자 마비상태가 되어 며칠 만에 사망하는 마비형도 있다.@ 원인] : 광견병에 걸린 개에게 물리면 타액 속에 섞여 있는 광견병 바이러스가 체내에 침입한다. 바이러스는 신경에서부터 척추나 뇌에 도달해서 신경증상을 일으킨다. 광견병 바이러스는 개나 인간뿐만 아니라 모든 포유동물에게 감염된다.@ 케어방법] : 현재 광견병의 치료법은 없다. 광견병 예방법에 따라 연 1회의 백신접종이 의무화되어 있지만 의무 때문이 아니라 나와 가족, 이웃 그리고 반려견의 건강을 위해서라도 반드시 백신을 접종시키자.</t>
   </si>
   <si>
     <t>홍역디스템퍼|홍역</t>
   </si>
   <si>
-    <t xml:space="preserve"> 증상] : 감염된 지 4~7일 후에 발병해서 식욕이나 기운이 없어진다. 그 후 설사 등을 하기도 하는데, 일단 열이 내려가고 언뜻 치유된 것처럼 보이기 때문에 초기증상을 놓치기 쉽다. 하지만 다시 열이 나기 시작하고 기침이나 끈적거리는 눈곱에 콧물, 설사, 구토 등의 증상이 나타난다. 경우에 따라서는 바이러스가 뇌까지 퍼져 안면이나 신체 일부를 움찔거리며 경련하는 틱 증상이나 전신의 근육이 수축하고 다리를 뻗거나 의식을 잃는 간질발작 같은 신경증상이 나타나기도 한다. 하드패트라 불리는 다리 안쪽의 육구가 각질화되어 돌처럼 딱딱해지는 특징적인 증상이 나타나기도 하고, 회복 후에도 후유증이 남거나 간혹 사망에 이르기도 한다.@ 원인] : 개 홍역바이러스에 감염되어 발병한다. 병에 걸린 개와 접촉했거나 재채기 등으로 침이나 콧물을 들이켰거나 소변이나 변을 핥다가 옮기도 한다. 바이러스가 묻은 음식물을 통해 감염되기도 한다.@ 케어방법] : 전염성 질병이기 때문에 격리시켜야 한다. 홍역에 효과적인 치료약이 없기 때문에 증상에 따라 약을 투여한다. 체력소모를 억제하고 소화가 잘 되는 영양가 높은 음식을 급여한다. 개를 안정시키고 보온에 신경 쓰며 체력이 소모되지 않도록 주의한다. 사망률이 높은 질병이지만 백신으로 충분히 예방 가능하므로 꼭 접종시키도록 한다.</t>
+    <t>증상] : 감염된 지 4~7일 후에 발병해서 식욕이나 기운이 없어진다. 그 후 설사 등을 하기도 하는데, 일단 열이 내려가고 언뜻 치유된 것처럼 보이기 때문에 초기증상을 놓치기 쉽다. 하지만 다시 열이 나기 시작하고 기침이나 끈적거리는 눈곱에 콧물, 설사, 구토 등의 증상이 나타난다. 경우에 따라서는 바이러스가 뇌까지 퍼져 안면이나 신체 일부를 움찔거리며 경련하는 틱 증상이나 전신의 근육이 수축하고 다리를 뻗거나 의식을 잃는 간질발작 같은 신경증상이 나타나기도 한다. 하드패트라 불리는 다리 안쪽의 육구가 각질화되어 돌처럼 딱딱해지는 특징적인 증상이 나타나기도 하고, 회복 후에도 후유증이 남거나 간혹 사망에 이르기도 한다.@ 원인] : 개 홍역바이러스에 감염되어 발병한다. 병에 걸린 개와 접촉했거나 재채기 등으로 침이나 콧물을 들이켰거나 소변이나 변을 핥다가 옮기도 한다. 바이러스가 묻은 음식물을 통해 감염되기도 한다.@ 케어방법] : 전염성 질병이기 때문에 격리시켜야 한다. 홍역에 효과적인 치료약이 없기 때문에 증상에 따라 약을 투여한다. 체력소모를 억제하고 소화가 잘 되는 영양가 높은 음식을 급여한다. 개를 안정시키고 보온에 신경 쓰며 체력이 소모되지 않도록 주의한다. 사망률이 높은 질병이지만 백신으로 충분히 예방 가능하므로 꼭 접종시키도록 한다.</t>
   </si>
   <si>
     <t>파보바이러스감염증|파보바이러스</t>
   </si>
   <si>
-    <t xml:space="preserve"> 증상] : 2~5일 정도 잠복했다가 심하게 구토, 설사를 한다. 증상이 심해지면 토마토케첩 같은 출혈을 동반한 점액 상태의 변을 본다. 구토와 설사 때문에 탈수증상을 일으키고 쇠약해지며 자견들은 쇼크사하기도 한다. 백혈구가 감소하는 것이 특징이고 소화기 증상을 일으키는 타입 외에 심근염형이라는 증상도 있다. 생후 몇 개월의 유견에게 발병하며 급성 심부전으로 돌연사하는 경우가 있다.@ 원인] : 원인인 바이러스는 개파보바이러스이다. 감염된 개의 변이나 구토물, 오염된 식기나 의류 등에 개가 입이나 코를 대면서 감염된다. 감염된 개를 만진 사람의 손을 통해 옮는 경우도 있다. 체내에 들어간 바이러스는 장관세포나 골수세포에서 증식한다.@ 케어방법] : 완전한 치료법은 현재 없으며 탈수 증상 치료를 중심으로 충분한 수액과 영양분을 보충한다. 다른 개와 격리하고 2차 감염을 방지하기 위해서 항생물질을 투여한다. 백신접종으로 예방한다.</t>
+    <t>증상] : 2~5일 정도 잠복했다가 심하게 구토, 설사를 한다. 증상이 심해지면 토마토케첩 같은 출혈을 동반한 점액 상태의 변을 본다. 구토와 설사 때문에 탈수증상을 일으키고 쇠약해지며 자견들은 쇼크사하기도 한다. 백혈구가 감소하는 것이 특징이고 소화기 증상을 일으키는 타입 외에 심근염형이라는 증상도 있다. 생후 몇 개월의 유견에게 발병하며 급성 심부전으로 돌연사하는 경우가 있다.@ 원인] : 원인인 바이러스는 개파보바이러스이다. 감염된 개의 변이나 구토물, 오염된 식기나 의류 등에 개가 입이나 코를 대면서 감염된다. 감염된 개를 만진 사람의 손을 통해 옮는 경우도 있다. 체내에 들어간 바이러스는 장관세포나 골수세포에서 증식한다.@ 케어방법] : 완전한 치료법은 현재 없으며 탈수 증상 치료를 중심으로 충분한 수액과 영양분을 보충한다. 다른 개와 격리하고 2차 감염을 방지하기 위해서 항생물질을 투여한다. 백신접종으로 예방한다.</t>
   </si>
   <si>
     <t>전염성간염</t>
   </si>
   <si>
-    <t xml:space="preserve"> 증상] : 중증형에서는 일주일 정도의 잠복기 후에 고열이 며칠간 계속되다가 식욕부진에 빠진다. 구토, 설사, 복통이 일어나고 편도가 붓거나 입안의 점막이 충혈되고 점상으로 출혈하기도 한다. 자견 등은 급성 간염이 병발하여 사망하는 예도 있다. 하지만 증상이 나타나지 않거나 발열과 콧물 정도로 끝나는 경증형인 경우도 있다. 증상이 회복되면서 눈의 각막이 뿌옇게 되면서 푸른빛을 띠는 경우가 있는데 이것을 블루아이라고 한다.@ 원인] : 개 아데노바이러스 1형이라는 바이러스에 감염되어 발생한다. 병에 걸린 개의 소변, 대변, 타액, 오염된 식기나 의복 등에서 개의 입으로 들어가 발병한다. 바이러스는 편도에서 림프 조직으로 침투하고 그 후 혈액으로 들어가 온몸으로 퍼진다.@ 케어방법] : 바이러스에 대한 효과적인 약이 없기 때문에 간장의 기능을 회복시키는 치료를 한다. 수액, 수혈, 비타민제나 항생물질 등을 투여하고 식사요법을 실시한다. 가정에서는 안정을 유지하고 식사는 지방분이 적은 양질의 단백질로 하고, 구토기가 있는 경우에는 억지로 밥을 먹이지 않는다. 이 질병은 백신접종으로 예방할 수 있다.</t>
+    <t>증상] : 중증형에서는 일주일 정도의 잠복기 후에 고열이 며칠간 계속되다가 식욕부진에 빠진다. 구토, 설사, 복통이 일어나고 편도가 붓거나 입안의 점막이 충혈되고 점상으로 출혈하기도 한다. 자견 등은 급성 간염이 병발하여 사망하는 예도 있다. 하지만 증상이 나타나지 않거나 발열과 콧물 정도로 끝나는 경증형인 경우도 있다. 증상이 회복되면서 눈의 각막이 뿌옇게 되면서 푸른빛을 띠는 경우가 있는데 이것을 블루아이라고 한다.@ 원인] : 개 아데노바이러스 1형이라는 바이러스에 감염되어 발생한다. 병에 걸린 개의 소변, 대변, 타액, 오염된 식기나 의복 등에서 개의 입으로 들어가 발병한다. 바이러스는 편도에서 림프 조직으로 침투하고 그 후 혈액으로 들어가 온몸으로 퍼진다.@ 케어방법] : 바이러스에 대한 효과적인 약이 없기 때문에 간장의 기능을 회복시키는 치료를 한다. 수액, 수혈, 비타민제나 항생물질 등을 투여하고 식사요법을 실시한다. 가정에서는 안정을 유지하고 식사는 지방분이 적은 양질의 단백질로 하고, 구토기가 있는 경우에는 억지로 밥을 먹이지 않는다. 이 질병은 백신접종으로 예방할 수 있다.</t>
   </si>
   <si>
     <t>켄넬코프</t>
   </si>
   <si>
-    <t xml:space="preserve"> 증상] : 마르고 심한 기침이 나온다. 기운이 없어지지도 않고 식욕도 정상일 때와 크게 다르지 않지만 증상이 진행되면 콧물이 나오거나 가래가 껴서 토하거나 미열이 나기도 한다. 통상 며칠 내로 가라앉지만 저항력이 약한 새끼나 노견은 악화되면 식욕이 없어지고 폐렴이 되거나 쇠약사하는 경우도 있으므로 가볍게 생각해서는 안 된다.@ 원인] : 파라인플루엔자바이러스, 아데노바이러스 2형 등의 바이러스나 세균에 감염되어 발병한다. 병든 개와의 접촉이나 재채기나 기침을 통해서 감염된다.@ 케어방법] : 바이러스에 효과적인 약이 없기 때문에 기침을 가라앉히기 위한 치료를 중심으로 항생물질 등을 투여한다. 가정에서는 보온이나 환기에 주의를 기울이고, 폐렴으로 전이되지 않도록 주의하고 컨디션이 좋지 않을 때에는 개가 모여 있는 곳에 데려가지 않도록 한다.</t>
+    <t>증상] : 마르고 심한 기침이 나온다. 기운이 없어지지도 않고 식욕도 정상일 때와 크게 다르지 않지만 증상이 진행되면 콧물이 나오거나 가래가 껴서 토하거나 미열이 나기도 한다. 통상 며칠 내로 가라앉지만 저항력이 약한 새끼나 노견은 악화되면 식욕이 없어지고 폐렴이 되거나 쇠약사하는 경우도 있으므로 가볍게 생각해서는 안 된다.@ 원인] : 파라인플루엔자바이러스, 아데노바이러스 2형 등의 바이러스나 세균에 감염되어 발병한다. 병든 개와의 접촉이나 재채기나 기침을 통해서 감염된다.@ 케어방법] : 바이러스에 효과적인 약이 없기 때문에 기침을 가라앉히기 위한 치료를 중심으로 항생물질 등을 투여한다. 가정에서는 보온이나 환기에 주의를 기울이고, 폐렴으로 전이되지 않도록 주의하고 컨디션이 좋지 않을 때에는 개가 모여 있는 곳에 데려가지 않도록 한다.</t>
   </si>
   <si>
     <t>코로나바이러스감염증|코로나바이러스</t>
   </si>
   <si>
-    <t xml:space="preserve"> 증상] : 성견의 경우 무증상일 수도 있지만 저항력이 약한 자견 등이 걸리면 위장병이 되어 갑자기 구토나 심한 설사를 한다. 설사가 장기간 계속되고 탈수증상을 일으켜 사망에 이르기도 한다.@ 원인] : 병견의 구토물이나 변, 오염된 식기 등에서 개의 입을 통해 감염된다. 전염력이 강하기 때문에 집단 사육하는 견사에서는 단시간에 많은 개가 감염된다.@ 케어방법] : 대부분의 경우는 자연적으로 치유되지만, 심한 경우에는 설사나 구토, 탈수증상 등을 완화시키는 치료와 함께 2차 감염을 방지하기 위해서 항생물질을 투여한다. 가정에서는 안정과 보온에 힘쓰고 소화가 잘 되는 저지방 식단을 급여한다. 예방에는 백신접종이 가장 효과적이다.</t>
+    <t>증상] : 성견의 경우 무증상일 수도 있지만 저항력이 약한 자견 등이 걸리면 위장병이 되어 갑자기 구토나 심한 설사를 한다. 설사가 장기간 계속되고 탈수증상을 일으켜 사망에 이르기도 한다.@ 원인] : 병견의 구토물이나 변, 오염된 식기 등에서 개의 입을 통해 감염된다. 전염력이 강하기 때문에 집단 사육하는 견사에서는 단시간에 많은 개가 감염된다.@ 케어방법] : 대부분의 경우는 자연적으로 치유되지만, 심한 경우에는 설사나 구토, 탈수증상 등을 완화시키는 치료와 함께 2차 감염을 방지하기 위해서 항생물질을 투여한다. 가정에서는 안정과 보온에 힘쓰고 소화가 잘 되는 저지방 식단을 급여한다. 예방에는 백신접종이 가장 효과적이다.</t>
   </si>
   <si>
     <t>개헤르페스바이러스감염증|헤르페스</t>
@@ -2786,7 +2786,7 @@
     <t>렙토스피라감염증|렙토스피라</t>
   </si>
   <si>
-    <t xml:space="preserve"> 증상] : 증상으로 불현성형, 출혈형, 황달형 등의 세 타입으로 나눌 수 있다. 대부분의 경우는 불현성형으로, 증상이 나타나지 않고 어느새 치유되어 있다. 하지만 회복한 개는 일정 기간 다른 개나 사람에 대한 감염원이 된다. 출혈형은 1~2일 발열한 후 입이나 눈의 점막이 충혈되고 구토하거나 설사를 하다 탈수증상을 일으킨다. 신장장애를 일으키기도 하며 사망률이 높은 타입이다. 황달형은 간장장애를 일으키고 점막이나 피부가 노랗게 되는 황달이 일어나고 혈뇨도 보인다. 갑자기 고열이 나고 구토하며 쇠약해지는 등으로 높은 사망률을 나타낸다.@ 원인] : 렙토스피라라는 세균에 감염된 개의 소변을 통해 오염된 땅이나 물, 음식을 입에 대면 감염되는 경우가 많으며 상처를 통해 세균이 침입하는 경우도 있다. 이 세균은 다른 동물에게도 감염되기 때문에 쥐 등을 통해 퍼지는 경우가 많다.@ 케어방법] : 항생물질을 투여하는 외에 신장이나 간장장애를 치료한다. 습도가 높은 환경에서 쉽게 발생하므로 청결이나 위생에 신경 쓰도록 한다. 사람에게 감염될 우려가 있으므로 간호 후에는 소독을 충분히 하도록 한다. 이 질병은 백신으로 예방할 수 있다.</t>
+    <t>증상] : 증상으로 불현성형, 출혈형, 황달형 등의 세 타입으로 나눌 수 있다. 대부분의 경우는 불현성형으로, 증상이 나타나지 않고 어느새 치유되어 있다. 하지만 회복한 개는 일정 기간 다른 개나 사람에 대한 감염원이 된다. 출혈형은 1~2일 발열한 후 입이나 눈의 점막이 충혈되고 구토하거나 설사를 하다 탈수증상을 일으킨다. 신장장애를 일으키기도 하며 사망률이 높은 타입이다. 황달형은 간장장애를 일으키고 점막이나 피부가 노랗게 되는 황달이 일어나고 혈뇨도 보인다. 갑자기 고열이 나고 구토하며 쇠약해지는 등으로 높은 사망률을 나타낸다.@ 원인] : 렙토스피라라는 세균에 감염된 개의 소변을 통해 오염된 땅이나 물, 음식을 입에 대면 감염되는 경우가 많으며 상처를 통해 세균이 침입하는 경우도 있다. 이 세균은 다른 동물에게도 감염되기 때문에 쥐 등을 통해 퍼지는 경우가 많다.@ 케어방법] : 항생물질을 투여하는 외에 신장이나 간장장애를 치료한다. 습도가 높은 환경에서 쉽게 발생하므로 청결이나 위생에 신경 쓰도록 한다. 사람에게 감염될 우려가 있으므로 간호 후에는 소독을 충분히 하도록 한다. 이 질병은 백신으로 예방할 수 있다.</t>
   </si>
   <si>
     <t>브루셀라증|브루셀라</t>
@@ -2798,7 +2798,7 @@
     <t>파상풍</t>
   </si>
   <si>
-    <t xml:space="preserve"> 증상] : 잠복 기간은 4일~2주 정도이고, 얼굴 측면의 교근(저작근의 하나)이 당기는 듯한 경련을 일으킨다. 그래서 입도 벌릴 수 없고 음식도 씹지 못하게 된다. 계속해서 온몸이 경직되고 경련을 일으킨다. 빛이나 소리, 진동 등의 자극에 예민해지고 강한 반응을 나타내는 것도 특징이다. 곧 호흡곤란을 일으키고 대부분은 사망한다.@ 원인] : 파상풍균은 널리 분포하며 흙 속에 오랫동안 살아 있다. 개가 흙에서 놀 때 입으로 들어가면 증식해서 독소를 발생시키고 신경을 침범하면서 발병한다.@ 케어방법] : 독소를 중화시키기 위한 주사나 항생물질을 투여한다. 경련이나 호흡곤란 등을 완화시키기 위한 치료도 실시한다.</t>
+    <t>증상] : 잠복 기간은 4일~2주 정도이고, 얼굴 측면의 교근(저작근의 하나)이 당기는 듯한 경련을 일으킨다. 그래서 입도 벌릴 수 없고 음식도 씹지 못하게 된다. 계속해서 온몸이 경직되고 경련을 일으킨다. 빛이나 소리, 진동 등의 자극에 예민해지고 강한 반응을 나타내는 것도 특징이다. 곧 호흡곤란을 일으키고 대부분은 사망한다.@ 원인] : 파상풍균은 널리 분포하며 흙 속에 오랫동안 살아 있다. 개가 흙에서 놀 때 입으로 들어가면 증식해서 독소를 발생시키고 신경을 침범하면서 발병한다.@ 케어방법] : 독소를 중화시키기 위한 주사나 항생물질을 투여한다. 경련이나 호흡곤란 등을 완화시키기 위한 치료도 실시한다.</t>
   </si>
   <si>
     <t>회충증</t>
@@ -2810,19 +2810,19 @@
     <t>구충증</t>
   </si>
   <si>
-    <t xml:space="preserve"> 증상] : 통상 1세 이하의 자견에게 발병한다. 설사를 하고 타르 모양의 변이나 혈변을 보기도 한다. 빈혈을 일으키고 심해지면 눈의 결막이나 입의 점막이 하얘지며 통증이 있기 때문에 배를 감싸는 듯한 자세를 취한다. 모유로 감염된 갓 태어난 새끼는 젖을 먹지 못하게 되어 급격히 쇠약해지고 빈혈로 쇼크사를 일으키기도 한다. 증상이 가벼운 경우 설사를 하는 일이 만성적으로 일어나며 건강하지 못한 상태가 된다.@ 원인] : 변과 함께 배설된 알이 부화하여 자충 상태로 음식물이나 식기에 붙어서 코와 입으로 감염된다. 구충의 자충은 흙 속에서 생식하기 때문에 개의 피부나 모공으로 감염되기도 한다. 또 암컷이 감염되면 태반이나 모유를 통해 새끼에게 감염된다. 자충은 최종적으로 장에 도달해 성충이 된다.@ 케어방법] : 증상이 가벼우면 약이나 주사로 구충을 하지만, 쇼크 상태를 일으키는 경우에는 수혈 등의 구급처치가 필요하다. 평소의 위생관리가 중요한 만큼 변은 빨리 처리하고 청결을 유지한다.</t>
+    <t>증상] : 통상 1세 이하의 자견에게 발병한다. 설사를 하고 타르 모양의 변이나 혈변을 보기도 한다. 빈혈을 일으키고 심해지면 눈의 결막이나 입의 점막이 하얘지며 통증이 있기 때문에 배를 감싸는 듯한 자세를 취한다. 모유로 감염된 갓 태어난 새끼는 젖을 먹지 못하게 되어 급격히 쇠약해지고 빈혈로 쇼크사를 일으키기도 한다. 증상이 가벼운 경우 설사를 하는 일이 만성적으로 일어나며 건강하지 못한 상태가 된다.@ 원인] : 변과 함께 배설된 알이 부화하여 자충 상태로 음식물이나 식기에 붙어서 코와 입으로 감염된다. 구충의 자충은 흙 속에서 생식하기 때문에 개의 피부나 모공으로 감염되기도 한다. 또 암컷이 감염되면 태반이나 모유를 통해 새끼에게 감염된다. 자충은 최종적으로 장에 도달해 성충이 된다.@ 케어방법] : 증상이 가벼우면 약이나 주사로 구충을 하지만, 쇼크 상태를 일으키는 경우에는 수혈 등의 구급처치가 필요하다. 평소의 위생관리가 중요한 만큼 변은 빨리 처리하고 청결을 유지한다.</t>
   </si>
   <si>
     <t>편충증</t>
   </si>
   <si>
-    <t xml:space="preserve"> 증상] : 소수가 기생하는 것만으로는 증상이 나타나지 않지만 다수가 기생하면 배에 통증이 나타나고 항상 설사를 하게 되며 선명한 혈변을 볼 수도 있다. 식욕이 없어져 영양불량이 되고 털의 윤기도 나빠지며 점점 마른다. 빈혈이나 탈수증상을 일으키기도 한다.@ 원인] : 변과 함께 배설된 알이 음식물이나 식기에 붙어서 입으로 들어가 감염된다. 회충이나 구충과 달리 경구감염만 된다. 체내에 들어간 알은 주로 소장 안에서 부화하여 맹장 또는 결장에 기생한다.@ 케어방법] : 약이나 주사로 구충한다. 빈혈이나 탈수 증상이 있다면 수혈 등을 맞힌다. 다른 기생충 예방과 마찬가지로 변을 빨리 처리하여 위생을 유지함으로써 예방이 가능하다. 편충의 알은 저항성이 있고, 흙 속에서 5년 이상 생존하므로 실외 생활을 하는 개가 편충기생의 병력이 있다면 개집을 이동시키거나 흙을 바꿔줄 필요가 있다.</t>
+    <t>증상] : 소수가 기생하는 것만으로는 증상이 나타나지 않지만 다수가 기생하면 배에 통증이 나타나고 항상 설사를 하게 되며 선명한 혈변을 볼 수도 있다. 식욕이 없어져 영양불량이 되고 털의 윤기도 나빠지며 점점 마른다. 빈혈이나 탈수증상을 일으키기도 한다.@ 원인] : 변과 함께 배설된 알이 음식물이나 식기에 붙어서 입으로 들어가 감염된다. 회충이나 구충과 달리 경구감염만 된다. 체내에 들어간 알은 주로 소장 안에서 부화하여 맹장 또는 결장에 기생한다.@ 케어방법] : 약이나 주사로 구충한다. 빈혈이나 탈수 증상이 있다면 수혈 등을 맞힌다. 다른 기생충 예방과 마찬가지로 변을 빨리 처리하여 위생을 유지함으로써 예방이 가능하다. 편충의 알은 저항성이 있고, 흙 속에서 5년 이상 생존하므로 실외 생활을 하는 개가 편충기생의 병력이 있다면 개집을 이동시키거나 흙을 바꿔줄 필요가 있다.</t>
   </si>
   <si>
     <t>조충증</t>
   </si>
   <si>
-    <t xml:space="preserve"> 증상] : 약 1cm 정도의 기생충의 체절이 찢어져 배설되는데 항문 주변에 붙은 채 말라서 부서진다. 이로 인해 항문이 자극을 받기 때문에 엉덩이를 땅에 문지르거나 핥게 된다. 대부분의 경우 증상이 나타나는 일은 별로 없지만, 다수 기생하면 설사나 식욕부진을 보이고 영양불량이 된다.@ 원인] : 항문 주변에 달라붙은 체절은 말라서 부서지면 안의 알이 흩어진다. 벼룩이 알을 먹으면 벼룩의 몸속에서 기생충이 발육한다. 개가 적극적으로 벼룩을 먹지는 않지만 우발적으로 삼켰을 때 감염된다.@ 케어방법] : 약이나 주사로 구충하고 영양불량이 됐을 때에는 영양제 등을 투여한다. 중간 숙주가 되는 벼룩을 구제하는 것이 가장 효과적인 예방법이므로 벼룩 구제약이나 샴푸를 이용해 벼룩을 퇴치한다. 개와 개집도 모두 청결하도록 신경 써야 한다.</t>
+    <t>증상] : 약 1cm 정도의 기생충의 체절이 찢어져 배설되는데 항문 주변에 붙은 채 말라서 부서진다. 이로 인해 항문이 자극을 받기 때문에 엉덩이를 땅에 문지르거나 핥게 된다. 대부분의 경우 증상이 나타나는 일은 별로 없지만, 다수 기생하면 설사나 식욕부진을 보이고 영양불량이 된다.@ 원인] : 항문 주변에 달라붙은 체절은 말라서 부서지면 안의 알이 흩어진다. 벼룩이 알을 먹으면 벼룩의 몸속에서 기생충이 발육한다. 개가 적극적으로 벼룩을 먹지는 않지만 우발적으로 삼켰을 때 감염된다.@ 케어방법] : 약이나 주사로 구충하고 영양불량이 됐을 때에는 영양제 등을 투여한다. 중간 숙주가 되는 벼룩을 구제하는 것이 가장 효과적인 예방법이므로 벼룩 구제약이나 샴푸를 이용해 벼룩을 퇴치한다. 개와 개집도 모두 청결하도록 신경 써야 한다.</t>
   </si>
   <si>
     <t>콕시듐</t>
@@ -2852,7 +2852,7 @@
     <t>음식물알레르기</t>
   </si>
   <si>
-    <t xml:space="preserve"> 증상] : 먹은 지 얼마 지나지 않아 증상이 나타난다. 심해지면 온몸에 피부염이 번지는 경우도 있지만 일반적으로는 눈이나 입 주변을 가려워하는 경우가 많고, 열이 나거나 설사나 구토를 동반하는 경우도 있다.@ 원인] : 우유나 육류, 곡물, 과일 등의 예가 많이 보이듯 특정 음식물이 원인이 될 수 있다. 2세 전후의 개에게 많이 발병되는 듯하다.@ 케어방법] : 혈액검사로 알레르기 원인(알레르겐)을 특정할 수 있다. 2~10주에 걸쳐서 원인으로 생각되는 음식물을 제거하면서 증상을 살펴보고 원인을 특정하는 방법도 있다. 약으로는 별로 효과가 나타나지 않기 때문에 원인이 되는 음식을 찾아내어 급여하지 않는 것이 가장 좋은 방법이다.</t>
+    <t>증상] : 먹은 지 얼마 지나지 않아 증상이 나타난다. 심해지면 온몸에 피부염이 번지는 경우도 있지만 일반적으로는 눈이나 입 주변을 가려워하는 경우가 많고, 열이 나거나 설사나 구토를 동반하는 경우도 있다.@ 원인] : 우유나 육류, 곡물, 과일 등의 예가 많이 보이듯 특정 음식물이 원인이 될 수 있다. 2세 전후의 개에게 많이 발병되는 듯하다.@ 케어방법] : 혈액검사로 알레르기 원인(알레르겐)을 특정할 수 있다. 2~10주에 걸쳐서 원인으로 생각되는 음식물을 제거하면서 증상을 살펴보고 원인을 특정하는 방법도 있다. 약으로는 별로 효과가 나타나지 않기 때문에 원인이 되는 음식을 찾아내어 급여하지 않는 것이 가장 좋은 방법이다.</t>
   </si>
   <si>
     <t>접촉성피부염</t>
@@ -2864,7 +2864,7 @@
     <t>지루증</t>
   </si>
   <si>
-    <t xml:space="preserve"> 증상] : 가슴이나 등줄기, 겨드랑이 아래, 귀속 등 피지 분비가 많은 부분이 기름지고 끈적거리는 피부나 또는 버석버석 건조하고 비듬이 많은 피부가 된다. 몸은 특유의 심한 냄새가 나게 되고 탈모가 일어나는 경우도 있다. 증상이 진행되면 가려움도 생기고 세균이나 마라세티아에 감염되는 경우가 많다.@ 원인] : 정상이라면 3주 정도 걸리는 피부의 각질화 사이클이 매우 빨라져 피부가 지루화된다. 또 피부의 윤기에 중요한 피지샘에 이상이 생겨 발생하는 경우도 있다. 호르몬의 이상이나 영양불균형, 피부기생충이나 세균감염, 알레르기 등 원인은 다양하다.@ 케어방법] : 각질을 녹이는 샴푸 등으로 피부의 컨디션을 조절한다. 다른 질환이 원인인 경우는 그것부터 치료해야 한다. 좀처럼 낫지 않고 만성화되는 경우가 많은 피부병이다. 평소 식사의 영양 밸런스에 신경 쓰고 체질 개선을 도모하며 피부를 청결하게 유지하는 것이 중요하다.</t>
+    <t>증상] : 가슴이나 등줄기, 겨드랑이 아래, 귀속 등 피지 분비가 많은 부분이 기름지고 끈적거리는 피부나 또는 버석버석 건조하고 비듬이 많은 피부가 된다. 몸은 특유의 심한 냄새가 나게 되고 탈모가 일어나는 경우도 있다. 증상이 진행되면 가려움도 생기고 세균이나 마라세티아에 감염되는 경우가 많다.@ 원인] : 정상이라면 3주 정도 걸리는 피부의 각질화 사이클이 매우 빨라져 피부가 지루화된다. 또 피부의 윤기에 중요한 피지샘에 이상이 생겨 발생하는 경우도 있다. 호르몬의 이상이나 영양불균형, 피부기생충이나 세균감염, 알레르기 등 원인은 다양하다.@ 케어방법] : 각질을 녹이는 샴푸 등으로 피부의 컨디션을 조절한다. 다른 질환이 원인인 경우는 그것부터 치료해야 한다. 좀처럼 낫지 않고 만성화되는 경우가 많은 피부병이다. 평소 식사의 영양 밸런스에 신경 쓰고 체질 개선을 도모하며 피부를 청결하게 유지하는 것이 중요하다.</t>
   </si>
   <si>
     <t>농피증</t>
@@ -2876,19 +2876,19 @@
     <t>모낭충증</t>
   </si>
   <si>
-    <t xml:space="preserve"> 증상] : 1세 미만의 자견에게 흔히 발생한다. 초기에는 눈, 코, 입 주변이나 발끝 등의 털이 빠지는데, 가려움이나 발진도 가볍기 때문에 그냥 지나치기 쉽다. 하지만 탈모가 서서히 번지면 온몸에 퍼지게 된다. 세균에 의한 2차 감염이 일어나면 화농, 출혈, 짓무름이 나타나며 가려움도 심해지기 때문에 개가 긁어대거나 핥으면 증상이 더욱 악화된다. 노견이 걸리는 경우도 증가하고 있는데, 이 경우에는 내분비의 질환이나 면역계의 이상 우려가 있다.@ 원인] : 보통의 건강상태라면 발병하지 않지만 면역력이나 저항력이 저하되거나 영양상태가 나쁘면 모공의 바리어 기능이 작용하지 못하고 진드기가 폭발적으로 증식하여 발생하는 것으로 보인다.@ 케어방법] : 진드기를 구제하는 약에는 다양한 종류가 있는데 어느 것이든 장기간에 걸친 치료가 필요하다. 약용샴푸를 사용하거나 털을 깎는 경우도 있다. 면역력을 높이는 대책이 필요하며, 식사나 보조제로 커버할 수 있는 부분도 있으므로 수의사의 지시에 따르도록 한다.</t>
+    <t>증상] : 1세 미만의 자견에게 흔히 발생한다. 초기에는 눈, 코, 입 주변이나 발끝 등의 털이 빠지는데, 가려움이나 발진도 가볍기 때문에 그냥 지나치기 쉽다. 하지만 탈모가 서서히 번지면 온몸에 퍼지게 된다. 세균에 의한 2차 감염이 일어나면 화농, 출혈, 짓무름이 나타나며 가려움도 심해지기 때문에 개가 긁어대거나 핥으면 증상이 더욱 악화된다. 노견이 걸리는 경우도 증가하고 있는데, 이 경우에는 내분비의 질환이나 면역계의 이상 우려가 있다.@ 원인] : 보통의 건강상태라면 발병하지 않지만 면역력이나 저항력이 저하되거나 영양상태가 나쁘면 모공의 바리어 기능이 작용하지 못하고 진드기가 폭발적으로 증식하여 발생하는 것으로 보인다.@ 케어방법] : 진드기를 구제하는 약에는 다양한 종류가 있는데 어느 것이든 장기간에 걸친 치료가 필요하다. 약용샴푸를 사용하거나 털을 깎는 경우도 있다. 면역력을 높이는 대책이 필요하며, 식사나 보조제로 커버할 수 있는 부분도 있으므로 수의사의 지시에 따르도록 한다.</t>
   </si>
   <si>
     <t>개선충증</t>
   </si>
   <si>
-    <t xml:space="preserve"> 증상] : 특히 팔꿈치나 발꿈치, 귀 등에 탈모나 염증이 발생해 피부가 딱딱해지고 비듬이 발생한다. 매우 가려워하고 밤낮없이 긁어댄다. 질병이 진행되면 부스럼이 생기고 그 밑에서 옴벌레가 번식한다. 심해지면 온몸에 피부염이 번진다.@ 원인] : 개의 피부에 구멍을 뚫어 침입한 진드기가 그 속에 산란하거나 배설하면서 평생을 보내기 때문이다.@ 케어방법] : 진드기 구제약을 투여한다. 구제약이 진드기 알에는 효과가 없기 때문에 1주일 정도 간격을 두고 투여를 반복해야 한다. 전신의 털을 깎는 경우도 있다. 전염력이 강하기 때문에 병에 걸린 개에게 접촉한 동물은 검사를 하는 것이 좋다.</t>
+    <t>증상] : 특히 팔꿈치나 발꿈치, 귀 등에 탈모나 염증이 발생해 피부가 딱딱해지고 비듬이 발생한다. 매우 가려워하고 밤낮없이 긁어댄다. 질병이 진행되면 부스럼이 생기고 그 밑에서 옴벌레가 번식한다. 심해지면 온몸에 피부염이 번진다.@ 원인] : 개의 피부에 구멍을 뚫어 침입한 진드기가 그 속에 산란하거나 배설하면서 평생을 보내기 때문이다.@ 케어방법] : 진드기 구제약을 투여한다. 구제약이 진드기 알에는 효과가 없기 때문에 1주일 정도 간격을 두고 투여를 반복해야 한다. 전신의 털을 깎는 경우도 있다. 전염력이 강하기 때문에 병에 걸린 개에게 접촉한 동물은 검사를 하는 것이 좋다.</t>
   </si>
   <si>
     <t>피부사상균증</t>
   </si>
   <si>
-    <t xml:space="preserve"> 증상] : 가려움이 나타나는 경우는 거의 없지만 10원짜리 동전만한 원형 탈모가 생기는 것이 특징이다. 심해지면 탈모 부분이 커지고 비듬이 생기거나 부스럼이 되기도 한다.@ 원인] : 곰팡이의 일종인 피부사상균에 감염되어 발병한다. 약한 표피에서 증식하고 부분적으로 염증을 일으킨다.@ 케어방법] : 연고를 바르거나 내복약을 투여한다. 털을 깎고 약용샴푸로 씻기도 한다. 화장실 매트 등을 통해 사람에게 옮을 수 있으니 주의해야 한다. 청소나 소독을 부지런히 하고 개를 만진 후에는 손을 씻는다.</t>
+    <t>증상] : 가려움이 나타나는 경우는 거의 없지만 10원짜리 동전만한 원형 탈모가 생기는 것이 특징이다. 심해지면 탈모 부분이 커지고 비듬이 생기거나 부스럼이 되기도 한다.@ 원인] : 곰팡이의 일종인 피부사상균에 감염되어 발병한다. 약한 표피에서 증식하고 부분적으로 염증을 일으킨다.@ 케어방법] : 연고를 바르거나 내복약을 투여한다. 털을 깎고 약용샴푸로 씻기도 한다. 화장실 매트 등을 통해 사람에게 옮을 수 있으니 주의해야 한다. 청소나 소독을 부지런히 하고 개를 만진 후에는 손을 씻는다.</t>
   </si>
   <si>
     <t>마라세티아감염증|마라세티아</t>
@@ -2960,7 +2960,7 @@
     <t>백내장</t>
   </si>
   <si>
-    <t xml:space="preserve"> 증상] : 시력이 저하되어 여기저기 부딪치거나 움직이는 것에 반응하지 않게 되고 계단을 내려가기 무서워하는 등 개의 행동 변화 때문에 주인이 눈치채는 일이 많다. 눈을 관찰하면 수정체가 하얗게 탁하거나 동공이 항상 확장되어 있다. 특히 어둑한 곳에서는 시력이 현저히 떨어지고, 질병이 진행되면 실명에 이른다.@ 원인] : 대개는 노화에 의한 것으로 평균적으로 6세를 넘긴 시점부터 서서히 증상이 진행된다. 외상이나 당뇨병, 내분비 이상 등이 원인이 되는 경우도 있다. 약년성은 유전에 의한 것으로 보인다.@ 케어방법] : 백내장이 극적으로 개선되는 경우는 희박하다. 안약이나 물약은 질병의 진행을 억제하는 목적으로 사용한다. 동물 안과학의 진보로 전문의가 수술하는 경우도 있지만 아직 일반적이지는 않다. 눈이 잘 보이지 않는 개를 키우는 경우에는 다치지 않도록 환경을 정돈한다.</t>
+    <t>증상] : 시력이 저하되어 여기저기 부딪치거나 움직이는 것에 반응하지 않게 되고 계단을 내려가기 무서워하는 등 개의 행동 변화 때문에 주인이 눈치채는 일이 많다. 눈을 관찰하면 수정체가 하얗게 탁하거나 동공이 항상 확장되어 있다. 특히 어둑한 곳에서는 시력이 현저히 떨어지고, 질병이 진행되면 실명에 이른다.@ 원인] : 대개는 노화에 의한 것으로 평균적으로 6세를 넘긴 시점부터 서서히 증상이 진행된다. 외상이나 당뇨병, 내분비 이상 등이 원인이 되는 경우도 있다. 약년성은 유전에 의한 것으로 보인다.@ 케어방법] : 백내장이 극적으로 개선되는 경우는 희박하다. 안약이나 물약은 질병의 진행을 억제하는 목적으로 사용한다. 동물 안과학의 진보로 전문의가 수술하는 경우도 있지만 아직 일반적이지는 않다. 눈이 잘 보이지 않는 개를 키우는 경우에는 다치지 않도록 환경을 정돈한다.</t>
   </si>
   <si>
     <t>녹내장</t>
@@ -3020,7 +3020,7 @@
     <t>애나멜질형성부전|애나멜질|에나멜질</t>
   </si>
   <si>
-    <t xml:space="preserve"> 증상] : 표면의 애나멜질이 얇거나 전혀 없기 때문에 이빨이 갈색이 되어 치구나 치석이 끼기 쉬워진다. 또 애나멜질은 이빨 보호층이기도 하므로 애나멜질이 없으면 강도가 약해서 이빨이 쉽게 부러지게 된다.@ 원인] : 영구치의 애나멜질이 형성되는 생후 1~4개월 무렵에 홍역 등의 감염증, 영양장애, 약물섭취 등으로 인해 충분하게 발달하지 못해서 일어난다.@ 케어방법] : 이빨 표면을 매끄럽게 하고 수복재로 수복한다. 표면 특수 코팅으로 보호하기도 한다.</t>
+    <t>증상] : 표면의 애나멜질이 얇거나 전혀 없기 때문에 이빨이 갈색이 되어 치구나 치석이 끼기 쉬워진다. 또 애나멜질은 이빨 보호층이기도 하므로 애나멜질이 없으면 강도가 약해서 이빨이 쉽게 부러지게 된다.@ 원인] : 영구치의 애나멜질이 형성되는 생후 1~4개월 무렵에 홍역 등의 감염증, 영양장애, 약물섭취 등으로 인해 충분하게 발달하지 못해서 일어난다.@ 케어방법] : 이빨 표면을 매끄럽게 하고 수복재로 수복한다. 표면 특수 코팅으로 보호하기도 한다.</t>
   </si>
   <si>
     <t>구내염</t>
@@ -3038,7 +3038,7 @@
     <t>자궁축농증</t>
   </si>
   <si>
-    <t xml:space="preserve"> 증상] : 고름이 밖으로 나오는 개방형과 안에 쌓여서 배출되지 않는 폐색형이 있다. 양쪽 다 기운이 없어지고 물을 많이 마시게 되고 소변양이 증가하고(다음, 다뇨), 대부분의 경우에 외음부가 부어오른다. 개방형에서는 음부에 불쾌한 냄새가 나는 고름이나 혈농 등의 분비물이 나온다. 증상이 더 심한 것은 폐색형으로 자궁 내부에 대량의 고름이 쌓여서 임신한 개처럼 배가 부풀어 오르고 구토나 설사 등의 증상이 나타난다. 증상이 진행되면 빈혈이나 신부전을 일으킬 수도 있다.@ 원인] : 출산 경험이 없는 개나 한 번만 출산한 개가 걸리기 쉽다. 발정기에는 세균이 침입하기 쉽기 때문에 발정기 이후에 많이 발병한다는 특징이 있다. 감염에 대한 저항력이 약해져 있으면 세균이 번식하고 화농화가 일어난다.@ 케어방법] : 통상 수술에 의해 자궁을 적출한다. 새끼를 꼭 낳게 하고 싶을 때에는 항생제 등의 투여로 치료할 수도 있다. 가정에서는 발정기 2~3개월 후에 잘 관찰하고 신경 쓰도록 한다. 새끼를 원하지 않는 경우에는 중성화 수술을 받으면 이 질병에 걸리지 않는다.</t>
+    <t>증상] : 고름이 밖으로 나오는 개방형과 안에 쌓여서 배출되지 않는 폐색형이 있다. 양쪽 다 기운이 없어지고 물을 많이 마시게 되고 소변양이 증가하고(다음, 다뇨), 대부분의 경우에 외음부가 부어오른다. 개방형에서는 음부에 불쾌한 냄새가 나는 고름이나 혈농 등의 분비물이 나온다. 증상이 더 심한 것은 폐색형으로 자궁 내부에 대량의 고름이 쌓여서 임신한 개처럼 배가 부풀어 오르고 구토나 설사 등의 증상이 나타난다. 증상이 진행되면 빈혈이나 신부전을 일으킬 수도 있다.@ 원인] : 출산 경험이 없는 개나 한 번만 출산한 개가 걸리기 쉽다. 발정기에는 세균이 침입하기 쉽기 때문에 발정기 이후에 많이 발병한다는 특징이 있다. 감염에 대한 저항력이 약해져 있으면 세균이 번식하고 화농화가 일어난다.@ 케어방법] : 통상 수술에 의해 자궁을 적출한다. 새끼를 꼭 낳게 하고 싶을 때에는 항생제 등의 투여로 치료할 수도 있다. 가정에서는 발정기 2~3개월 후에 잘 관찰하고 신경 쓰도록 한다. 새끼를 원하지 않는 경우에는 중성화 수술을 받으면 이 질병에 걸리지 않는다.</t>
   </si>
   <si>
     <t>질탈</t>
@@ -3062,7 +3062,7 @@
     <t>유선종양</t>
   </si>
   <si>
-    <t xml:space="preserve"> 증상] : 복부나 유두 주변에 멍울이 생긴다. 제4, 제5 유선의 발생률이 높고, 제1 유선에서는 거의 발생하지 않는다. 반 정도가 악성 유방암으로 전이될 가능성이 크기 때문에 주의가 필요하다.@ 원인] : 최초의 발정 전인 생후 6개월령 정도 사이에 중성화 수술을 받은 경우에는 발생률이 1% 이하라는 보고가 있다. 또 수술을 받은 연령에 따라 발생률이 다르기 때문에 분명 난소의 기능이 발병에 관여하고 있는 것으로 보인다.@ 케어방법] : 종양만 수술하거나 전 유선을 잘라내거나, 경우에 따라서는 난소나 자궁을 적출하기도 한다. 연령이나 질병의 진행 상태를 고려해서 결정해야 한다. 양성인 경우에는 재발 위험이 거의 없지만, 악성인 경우에는 전이나 재발이 있을 수 있기 때문에 경과를 관찰해야 한다.</t>
+    <t>증상] : 복부나 유두 주변에 멍울이 생긴다. 제4, 제5 유선의 발생률이 높고, 제1 유선에서는 거의 발생하지 않는다. 반 정도가 악성 유방암으로 전이될 가능성이 크기 때문에 주의가 필요하다.@ 원인] : 최초의 발정 전인 생후 6개월령 정도 사이에 중성화 수술을 받은 경우에는 발생률이 1% 이하라는 보고가 있다. 또 수술을 받은 연령에 따라 발생률이 다르기 때문에 분명 난소의 기능이 발병에 관여하고 있는 것으로 보인다.@ 케어방법] : 종양만 수술하거나 전 유선을 잘라내거나, 경우에 따라서는 난소나 자궁을 적출하기도 한다. 연령이나 질병의 진행 상태를 고려해서 결정해야 한다. 양성인 경우에는 재발 위험이 거의 없지만, 악성인 경우에는 전이나 재발이 있을 수 있기 때문에 경과를 관찰해야 한다.</t>
   </si>
   <si>
     <t>정유정소</t>
@@ -3158,7 +3158,7 @@
     <t>작업견이나 사냥개로 이용되던 역사가 없는 타고난 반려견. 순백에 실크 같은 광택이 있는 피모를 가졌으며 밑털이 없다. 새까맣고 동그란 눈도 특징이다.</t>
   </si>
   <si>
-    <t>웰시코기펨브룩특징</t>
+    <t>웰시코기특징|웰시특징</t>
   </si>
   <si>
     <t>웰시 코기에는 꼬리털이 긴 가디건과 꼬리털이 짧은 펨브룩이 있는데, 모습은 비슷하지만 다른 견종으로 분류된다. 동장단족, 튼튼한 골격이 특징.</t>
@@ -3278,7 +3278,7 @@
     <t>지적이고 우아, 활발하고 밝고 쾌활한 반려견. 작은 몸에 어울리지 않게 용감하다. 사람의 마음을 민감하게 감지하고 어리광이 능숙한 면도 있다.</t>
   </si>
   <si>
-    <t>웰시코기펨브룩성격</t>
+    <t>웰시코기성격|웰시성격</t>
   </si>
   <si>
     <t>원래 목축견으로 주인의 일을 도왔기 때문에 복종적이면서도 사교적이다. 소나 양을 무리로 돌아가게 하는 역할이었기 때문인지 용감하면서도 영역 의식이 강하다. 훈련시키기는 쉽다.</t>
@@ -3398,7 +3398,7 @@
     <t>목욕은 다른 견종보다 자주한다. 빗질은 매일 꼼꼼하게 한다. 눈, 입 주위는 항상 청결하게. 통기성이 좋지 않은 귀를 체크하는 것도 중요하다.</t>
   </si>
   <si>
-    <t>웰시코기펨브룩케어방법|웰시코기펨브룩주의</t>
+    <t>웰시코기케어방법|웰시코기주의|웰시케어방법|웰시주의</t>
   </si>
   <si>
     <t>무는 버릇이 있으므로 일찌감치 훈련을 시키도록 한다. 털갈이 시기에 털이 수북이 빠지므로 빗질로 꼼꼼하게 제거한다. 허리에 부담을 적게 주도록 신경 쓴다.</t>
@@ -3518,7 +3518,7 @@
     <t>유루증, 슬개골탈구, 혈소판감소증, 승모판폐쇄부전, 동맥관개존증</t>
   </si>
   <si>
-    <t>웰시코기펨브룩걸리기쉬운질병|웰시코기펨브룩질병|웰시코기펨브룩걸리기쉬운병</t>
+    <t>웰시코기걸리기쉬운질병|웰시코기질병|웰시코기걸리기쉬운병|코기걸리기쉬운질병|코기질병|코기걸리기쉬운병</t>
   </si>
   <si>
     <t>추간판헤르니아, 백내장, 슬개골탈구, 요로결석증</t>
@@ -3587,7 +3587,7 @@
     <t>닥스훈트</t>
   </si>
   <si>
-    <t xml:space="preserve"> 특징] : 오소리사냥개였던 것을 소형화시킨 것이다. 피모의 차이에 따라 스무스(단모), 롱(장모), 와이어(짧고 성긴 털) 등 3종으로 나뉜다. 컬러의 종류도 다양하다. 크기, 피모의 종류가 다른 것끼리 교배해서는 안 된다. 사지의 뼈대가 굵다.@ 성격] : 원래 사냥개였기 때문에 노는 것을 좋아하고 적당한 경계심이 있으며 잘 짖는다. 훈련을 시키려면 다소 끈기가 필요하다. 희로애락이 뚜렷해서 보고 있으면 질리지 않는 견종이다.@ 케어방법] : 동체가 길기 때문에 등뼈에 부담을 주는 운동은 금물이다. 비만도 요통의 원인이 되므로 체중관리를 확실하게 해야 한다. 귀가 늘어져 있기 때문에 귀를 잘 손질하는 것이 중요하다. 롱헤어드는 피모가 뭉치기 쉬우므로 빗질을 자주 해준다.@ 걸리기 쉬운 질병] : 추간판 헤르니아, 갑상선 기능저하증, 요로결석증, 동맥관 개존증, 외이염</t>
+    <t>특징] : 오소리사냥개였던 것을 소형화시킨 것이다. 피모의 차이에 따라 스무스(단모), 롱(장모), 와이어(짧고 성긴 털) 등 3종으로 나뉜다. 컬러의 종류도 다양하다. 크기, 피모의 종류가 다른 것끼리 교배해서는 안 된다. 사지의 뼈대가 굵다.@ 성격] : 원래 사냥개였기 때문에 노는 것을 좋아하고 적당한 경계심이 있으며 잘 짖는다. 훈련을 시키려면 다소 끈기가 필요하다. 희로애락이 뚜렷해서 보고 있으면 질리지 않는 견종이다.@ 케어방법] : 동체가 길기 때문에 등뼈에 부담을 주는 운동은 금물이다. 비만도 요통의 원인이 되므로 체중관리를 확실하게 해야 한다. 귀가 늘어져 있기 때문에 귀를 잘 손질하는 것이 중요하다. 롱헤어드는 피모가 뭉치기 쉬우므로 빗질을 자주 해준다.@ 걸리기 쉬운 질병] : 추간판 헤르니아, 갑상선 기능저하증, 요로결석증, 동맥관 개존증, 외이염</t>
   </si>
   <si>
     <t>푸들|토이푸들</t>
@@ -3611,7 +3611,7 @@
     <t>파피용|빠삐용</t>
   </si>
   <si>
-    <t xml:space="preserve"> 특징] : 파피용은 프랑스어로 '나비'라는 뜻이다. 늘어진 귀가 나비같다고 하여 이런 이름을 갖게 되었다. 단결 같은 피모, 커다란 귀가 특징이다. 냄새도 적다.@ 성격] : 대담하지만 온순해서 길들이기 쉽고 어리광을 잘 부린다. 16세기의 유럽 귀족 사회에서 특별하게 여기던 개였기 때문인지 제멋대로인 면도 있다. 새끼를 잘 키운다.@ 케어방법] : 어리광부리는 개에게 공사구분을 확실하게 가르친다. 빗질은 매일 해주고 스트레스 발산을 위해 하루 한 번은 운동을 시킨다.@ 걸리기 쉬운 질병] : 슬개골 탈구, '기관허탈, 안검내반, 아토피성 피부염</t>
+    <t>특징] : 파피용은 프랑스어로 '나비'라는 뜻이다. 늘어진 귀가 나비같다고 하여 이런 이름을 갖게 되었다. 단결 같은 피모, 커다란 귀가 특징이다. 냄새도 적다.@ 성격] : 대담하지만 온순해서 길들이기 쉽고 어리광을 잘 부린다. 16세기의 유럽 귀족 사회에서 특별하게 여기던 개였기 때문인지 제멋대로인 면도 있다. 새끼를 잘 키운다.@ 케어방법] : 어리광부리는 개에게 공사구분을 확실하게 가르친다. 빗질은 매일 해주고 스트레스 발산을 위해 하루 한 번은 운동을 시킨다.@ 걸리기 쉬운 질병] : 슬개골 탈구, '기관허탈, 안검내반, 아토피성 피부염</t>
   </si>
   <si>
     <t>시추|시츄</t>
@@ -3638,7 +3638,7 @@
     <t xml:space="preserve"> 특징] : 작업견이나 사냥개로 이용되던 역사가 없는 타고난 반려견. 순백에 실크 같은 광택이 있는 피모를 가졌으며 밑털이 없다. 새까맣고 동그란 눈도 특징이다.@ 성격] : 지적이고 우아, 활발하고 밝고 쾌활한 반려견. 작은 몸에 어울리지 않게 용감하다. 사람의 마음을 민감하게 감지하고 어리광이 능숙한 면도 있다.@ 케어방법] : 목욕은 다른 견종보다 자주한다. 빗질은 매일 꼼꼼하게 한다. 눈, 입 주위는 항상 청결하게. 통기성이 좋지 않은 귀를 체크하는 것도 중요하다.@ 걸리기 쉬운 질병] : 유루증, 슬개골 탈구, 혈소판 감소증, 승모판 폐쇄부전, 동맥관 개존증</t>
   </si>
   <si>
-    <t>웰시코기|펨브룩</t>
+    <t>웰시코기|웰시</t>
   </si>
   <si>
     <t xml:space="preserve"> 특징] : 웰시 코기에는 꼬리털이 긴 가디건과 꼬리털이 짧은 펨브룩이 있는데, 모습은 비슷하지만 다른 견종으로 분류된다. 동장단족, 튼튼한 골격이 특징.@ 성격] : 원래 목축견으로 주인의 일을 도왔기 때문에 복종적이면서도 사교적이다. 소나 양을 무리로 돌아가게 하는 역할이었기 때문인지 용감하면서도 영역 의식이 강하다. 훈련시키기는 쉽다.@ 케어방법] : 무는 버릇이 있으므로 일찌감치 훈련을 시키도록 한다. 털갈이 시기에 털이 수북이 빠지므로 빗질로 꼼꼼하게 제거한다. 허리에 부담을 적게 주도록 신경 쓴다.@ 걸리기 쉬운 질병] : 추간판 헤르니아, 백내장, 슬개골 탈구, 요로결석증</t>
@@ -3665,7 +3665,7 @@
     <t>카발리아킹찰스스파니엘|카발리아</t>
   </si>
   <si>
-    <t xml:space="preserve"> 특징] : 영국의 찰스 1, 2세가 사랑한 킹 찰스 스파니엘의 개량견. 카발리아란 '중세의 기사'를 의미한다. 몸은 균형이 잘 잡혀 있다.@ 성격] : 붙임성이 과할 정도로 사람을 좋아하고, 근본적으로 사교적이다. 온후하고 다정한 성격으로 타인에게 공격적으로 대하는 일이 거의 없다. 머리도 좋아서 훈련시키기 쉽다.@ 케어방법] : 피모 손질은 매일 해준다. 엉키기 쉬우므로 빗질을 할 때 아프지 않게 주의한다. 보기보다 활발하므로 운동은 많이 시킨다.@ 걸리기 쉬운 질병] : 승모판 폐쇄부전, 연구개 과장증, 외이염, 백내장</t>
+    <t>특징] : 영국의 찰스 1, 2세가 사랑한 킹 찰스 스파니엘의 개량견. 카발리아란 '중세의 기사'를 의미한다. 몸은 균형이 잘 잡혀 있다.@ 성격] : 붙임성이 과할 정도로 사람을 좋아하고, 근본적으로 사교적이다. 온후하고 다정한 성격으로 타인에게 공격적으로 대하는 일이 거의 없다. 머리도 좋아서 훈련시키기 쉽다.@ 케어방법] : 피모 손질은 매일 해준다. 엉키기 쉬우므로 빗질을 할 때 아프지 않게 주의한다. 보기보다 활발하므로 운동은 많이 시킨다.@ 걸리기 쉬운 질병] : 승모판 폐쇄부전, 연구개 과장증, 외이염, 백내장</t>
   </si>
   <si>
     <t>래브라도리트리버|레브라도리트리버|레브라도|래브라도</t>
@@ -3683,7 +3683,7 @@
     <t>잭러셀테리어</t>
   </si>
   <si>
-    <t xml:space="preserve"> 특징] : 피모에 따라 스무스와 브로큰 2종류가 있다. 여우사냥을 위해 만들어진 개인 만큼 작은 틈에서도 유턴할 수 있을 만큼 관절이 부드럽다. 발이 빠르다.@ 성격] : 탐색, 모험, 땅굴파기를 쉽게 한다. 모르는 개에게는 공격적으로 대해서 다른 동물과 함께 키우기가 어렵다. 끈기가 강하고 스테미너가 있어 잠시도 가만히 있지 못한다.@ 케어방법] : 매일 상당한 운동량이 필요하다. 멋대로 굴을 파고 들어가지 않도록 훈련을 철저하게 시켜야 한다. 피모 손질은 간단히. 최대한 커뮤니케이션을 많이 한다.@ 걸리기 쉬운 질병] : 슬개골 탈구, 마라세티아 감염증, 당뇨병, 백내장</t>
+    <t>특징] : 피모에 따라 스무스와 브로큰 2종류가 있다. 여우사냥을 위해 만들어진 개인 만큼 작은 틈에서도 유턴할 수 있을 만큼 관절이 부드럽다. 발이 빠르다.@ 성격] : 탐색, 모험, 땅굴파기를 쉽게 한다. 모르는 개에게는 공격적으로 대해서 다른 동물과 함께 키우기가 어렵다. 끈기가 강하고 스테미너가 있어 잠시도 가만히 있지 못한다.@ 케어방법] : 매일 상당한 운동량이 필요하다. 멋대로 굴을 파고 들어가지 않도록 훈련을 철저하게 시켜야 한다. 피모 손질은 간단히. 최대한 커뮤니케이션을 많이 한다.@ 걸리기 쉬운 질병] : 슬개골 탈구, 마라세티아 감염증, 당뇨병, 백내장</t>
   </si>
   <si>
     <t>비글</t>
@@ -3695,7 +3695,7 @@
     <t>보더콜리</t>
   </si>
   <si>
-    <t xml:space="preserve"> 특징] : 골격이 단단하고 지구력과 순발력, 힘을 겸비하고 있다. 피모는 짧은 스무스, 긴 웨이브가 나 있는 러프 2종. 귀 모양도 특징적이다.@ 성격] : 주인에게는 복종하고 총명, 지적호기심이 강하다. 다른 사람이나 개에게는 먼저 커뮤니케이션을 취하지 않지만 공격적이지도 않다.@ 케어방법] : 작업의욕이 있는 개이므로 일을 맡기는 듯한 느낌으로 머리와 몸 양쪽을 사용할 수 있는 운동을 충분히 시키는 것이 좋다. 빗질로 피모를 청결하게.@ 걸리기 쉬운 질병] : 고관절 형성부전, 아토피성 피부염, 백내장</t>
+    <t>특징] : 골격이 단단하고 지구력과 순발력, 힘을 겸비하고 있다. 피모는 짧은 스무스, 긴 웨이브가 나 있는 러프 2종. 귀 모양도 특징적이다.@ 성격] : 주인에게는 복종하고 총명, 지적호기심이 강하다. 다른 사람이나 개에게는 먼저 커뮤니케이션을 취하지 않지만 공격적이지도 않다.@ 케어방법] : 작업의욕이 있는 개이므로 일을 맡기는 듯한 느낌으로 머리와 몸 양쪽을 사용할 수 있는 운동을 충분히 시키는 것이 좋다. 빗질로 피모를 청결하게.@ 걸리기 쉬운 질병] : 고관절 형성부전, 아토피성 피부염, 백내장</t>
   </si>
   <si>
     <t>아메리칸코카스파니엘</t>
@@ -3707,61 +3707,61 @@
     <t>수술</t>
   </si>
   <si>
-    <t>중성화수술장점|수술장점|좋은점|하는이유|장점</t>
+    <t xml:space="preserve">중성화수술장점|수술장점|수술좋은점|수술하는이유|중성화장점|중성화좋은점|중성화하는이유|수술 </t>
   </si>
   <si>
     <t>수컷 강아지들은 마운팅과 성적 자극을 없애기 위해 중성화가 필수입니다. 성적 욕구가 없어지면 스트레스가 없고 성격이 온순해져 훈련하기가 쉽습니다. 또한 전립선 질병, 정소나 항문 주변의 종양 등의 질병에 걸릴 확률이 줄어듭니다. 암컷 강아지는 원하지 않는 임신을 피할 수 있으며 자궁 관련 질병(자궁축농증)이나 유방암에 걸릴 확률이 줄어듭니다.</t>
   </si>
   <si>
-    <t>중성화수술단점|수술단점|부작용|안좋은점|안하는이유|단점</t>
+    <t>중성화수술단점|수술단점|중성화부작용|중성화안좋은점|중성화안하는이유|중성화단점|수술부작용|수술안좋은점</t>
   </si>
   <si>
     <t>수컷 강아지는 쉽게 비만이 되는 경향이 있으며 행동이 다소 둔해지고 극히 드물게 호르몬 결핍증인 피부병에 걸리기도 합니다.(효과적인 치료법이 있으므로 문제없다). 암컷 강아지들은 나중에 자궁암에 걸리기 쉽습니다.</t>
   </si>
   <si>
-    <t>중성화수술방법|수술방법|과정|방법</t>
+    <t>중성화수술방법|수술방법|중성화과정|중성화수술과정|수술과정|중성화방법</t>
   </si>
   <si>
     <t>수컷 강아지는 전신마취를 하고 좌우의 정소(고환)를 적출하고 암컷 강아지는 전신마취를 하고 개복하여 난소, 또는 난소와 자궁을 적출합니다.</t>
   </si>
   <si>
-    <t>중성화수술입원|수술입원|입원</t>
+    <t>중성화수술입원|수술입원|입원|중성화입원</t>
   </si>
   <si>
     <t>수컷 강아지는 입원이 필요 없고 오전 중에 데려가면 저녁 무렵에는 데리고 올 수 있습니다. 암컷 강아지는 병원에 따라 강아지는 하루 이틀 정도 입원합니다.</t>
   </si>
   <si>
-    <t>중성화수술비용|수술비용|비용|요금|가격</t>
+    <t>중성화수술비용|중성화수술요금|중성화수술가격|수술비용|수술요금|수술가격|중성화비용|중성화요금|중성화가격</t>
   </si>
   <si>
     <t>수컷 강아지들은 평균 10~30만원이며 암컷 강아지들은 평균 30~35만원입니다. 병원마다 차이가 있습니다.</t>
   </si>
   <si>
-    <t>중성화수술전|수술전|수술하기전</t>
+    <t>중성화수술전|수술전|수술하기전|중성화전|중성화하기전</t>
   </si>
   <si>
     <t>전날 저녁에 밥을 먹였다면 수술 당일에는 아침부터 금식하게 하고 물은 마시게 해도 됩니다.</t>
   </si>
   <si>
-    <t>중성화수술당일|수술당일|당일|그날</t>
+    <t>중성화수술당일|수술당일|수술그날|중성화당일|중성화그날</t>
   </si>
   <si>
     <t>배변, 배뇨를 마친 후 수컷 강아지는 일반적으로 약 하루면 집에 돌아올 수 있고 암컷 강아지는 일반적으로 입원을 합니다.</t>
   </si>
   <si>
-    <t>중성화수술후|수술후|수술하고난</t>
+    <t>중성화수술후|수술후|수술하고난|중성화수술하고난후</t>
   </si>
   <si>
     <t>수술 열흘 후 정도에는 실밥을 풀기 위해서 내원합니다. 실밥을 푼 후 일주일 동안 목욕은 삼가고, 상처를 핥지 않도록 주의시킵니다. 산책은 수술 다음날부터 가능합니다.</t>
   </si>
   <si>
-    <t>중성화수술시간|수술시간|시간</t>
+    <t>중성화수술시간|수술시간|중성화소요시간|수술소요시간|중성화수술소요시간</t>
   </si>
   <si>
     <t>수컷 강아지들은 평균 10~15분이 소요되며 암컷 강아지들은 평균 15~25분이 소요됩니다. 병원마다 약간의 차이가 있습니다</t>
   </si>
   <si>
-    <t>중성화수술후유증|수술후유증|후유증|합병증|휴우증</t>
+    <t>중성화수술후유증|중성화후유증|중성화합병증|중성화휴우증|수술후유증|수술합병증|수술휴우증</t>
   </si>
   <si>
     <t>과도한 통증과 감염같은 합병증이 생길 수 있습니다. 만약 무기력/악취/식욕상실/앓는소리/창뱃한잇몸/출혈/붓기 등의 징후가 계속 발생한다면 즉시 병원에 방문해야합니다.</t>
